--- a/WIP/files/Q15.xlsx
+++ b/WIP/files/Q15.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B06850-C291-4673-A9B2-FA33AA3D1EF2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA944F95-C8BA-4149-8534-145FF4A74CFF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="3" xr2:uid="{22893F0B-A729-4658-BA95-3A1CD5E3C5C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase 1" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCase 2" sheetId="2" r:id="rId2"/>
-    <sheet name="TestCase 3" sheetId="3" r:id="rId3"/>
-    <sheet name="TestCase 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -94,7 +93,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -106,7 +105,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -153,23 +152,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -205,23 +187,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,10 +338,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7D8798-5EB6-4C37-A1D6-B2D11191CEFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -385,10 +352,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C45754E-6C23-488D-A6B9-66F3EA072080}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FA6424-C15D-4AD8-A896-1A06866FB67A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -397,10 +366,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60A804B-FECF-4C6D-AE47-671659D9C082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA4308A-354F-4E89-AF55-4ACE45499A0F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -409,11 +380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0E08D8-1698-4734-8FC3-F67E643E5097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF41E115-1746-4412-982E-EA8BBE96BD90}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/WIP/files/Q15.xlsx
+++ b/WIP/files/Q15.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA944F95-C8BA-4149-8534-145FF4A74CFF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3E3228-489F-43D5-B2FD-06A16CD85D66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{1B0629F8-2776-43F9-A5AC-D91428D5F222}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Testcase4" sheetId="5" r:id="rId1"/>
+    <sheet name="Testcase3" sheetId="4" r:id="rId2"/>
+    <sheet name="Testcase2" sheetId="3" r:id="rId3"/>
+    <sheet name="Testcase1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76,6 +78,730 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22594A17-CBC4-468F-BF92-CFC52B6E0ED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5303520"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740EC385-0AA7-467A-80C8-41F7C97BFCC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7132320"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E3E066-70CA-4440-8DA1-FFFCDB4A81EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8961120"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14BEA3C-DC33-4E2D-9532-DD6CEDD6DB44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1645920"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDE368A-673E-48BC-900F-82D20F06D636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7132320"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2185271B-889A-4AA6-B9A9-5A8B920ADD45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8961120"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B51DAF9-96DD-47B3-B59C-1C82D0797EB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1645920"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBD2A3D-9E69-4FFC-9E6A-75DCD0EF011F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3474720"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09240A50-E3A2-4399-8637-DD5642DD06B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8961120"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B86EBA4-4381-42C3-A29D-D04DE736F00E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1645920"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84863CE-38D3-45A3-96B8-6B0DAAC5CD85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3474720"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B817D7AC-F638-4620-9D5E-C7826741BB27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5303520"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F7E744-7B92-4CAD-AA94-E8E39AA07335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1645920"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892B23F6-D8D9-4814-8911-B6985BD1E674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3474720"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7D7477-DE28-40B1-BA5B-D6665E104647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5303520"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C41EC7-1237-418A-AB83-855CB8291FAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7132320"/>
+          <a:ext cx="2540000" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -93,7 +819,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -105,7 +831,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -152,6 +878,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -187,6 +930,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -338,54 +1098,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292D833D-4E40-4297-AB76-49F453FB5899}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FA6424-C15D-4AD8-A896-1A06866FB67A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EC3267-C9CA-4471-B318-2E5E4F844754}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA4308A-354F-4E89-AF55-4ACE45499A0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2524C3F-F19A-4BED-A42B-50E89C44DDC3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF41E115-1746-4412-982E-EA8BBE96BD90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4287DFBB-6912-4BDB-BC2B-735E828B0311}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAA4D18-255F-4970-990C-D14D60DE66F7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
